--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B66EEE0E-7793-4D98-9BEE-A78371A6E345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\GUIFramework\GUISeleniumFramework\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2238F3B0-F6F7-45BD-8E82-A602D775D45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11620" windowHeight="6330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="3" r:id="rId1"/>
     <sheet name="org" sheetId="1" r:id="rId2"/>
-    <sheet name="product" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="product" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="152">
   <si>
     <t>TC_ID</t>
   </si>
@@ -444,13 +449,49 @@
   </si>
   <si>
     <t>faceBook_kdd</t>
+  </si>
+  <si>
+    <t>PatientName</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Password Again</t>
+  </si>
+  <si>
+    <t>Ronit</t>
+  </si>
+  <si>
+    <t>WestBengal</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>neel062@co.in</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>Create_a_Patient_Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,8 +499,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,18 +563,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -801,7 +861,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -923,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1052,6 +1112,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D4DBFF-79C5-4313-A7CE-A0F24C5383DC}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E1E5C2DE-B298-49A3-BF5C-4A718F3E8097}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6E95A9-5958-495C-AC30-1DA708189BFF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1102,7 +1255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004AA42-F8FF-45C9-AB36-1F51EDB304F0}">
   <dimension ref="A1:B100"/>
   <sheetViews>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\GUIFramework\GUISeleniumFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2238F3B0-F6F7-45BD-8E82-A602D775D45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2382BB9D-2194-4B3B-8A5D-244890708F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B66EEE0E-7793-4D98-9BEE-A78371A6E345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11620" windowHeight="6330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15300" windowHeight="6495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="3" r:id="rId1"/>
     <sheet name="org" sheetId="1" r:id="rId2"/>
     <sheet name="product" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Doctor_Module" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="155">
   <si>
     <t>TC_ID</t>
   </si>
@@ -444,12 +443,57 @@
   </si>
   <si>
     <t>faceBook_kdd</t>
+  </si>
+  <si>
+    <t>AddPatient</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>Patient contactNo</t>
+  </si>
+  <si>
+    <t>Patient Email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Medical History</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>@gmail.com</t>
+  </si>
+  <si>
+    <t>guru_</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>9789654321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,7 +503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +513,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,13 +567,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -613,7 +672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -790,26 +849,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618505B5-BC18-40DF-B31F-D9D1863412AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -920,18 +979,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1052,17 +1111,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6E95A9-5958-495C-AC30-1DA708189BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1103,17 +1162,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004AA42-F8FF-45C9-AB36-1F51EDB304F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1252,7 +1311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1276,7 +1335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1292,7 +1351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1316,7 +1375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1324,7 +1383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1332,7 +1391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +1399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1356,7 +1415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1364,7 +1423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1388,7 +1447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1396,7 +1455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1404,7 +1463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1412,7 +1471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -1420,7 +1479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -1436,7 +1495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -1444,7 +1503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +1511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
@@ -1468,7 +1527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
@@ -1476,7 +1535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
@@ -1484,7 +1543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1492,7 +1551,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
@@ -1508,7 +1567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>14</v>
       </c>
@@ -1516,7 +1575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>58</v>
       </c>
@@ -1524,7 +1583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -1532,7 +1591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>58</v>
       </c>
@@ -1540,7 +1599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
@@ -1548,7 +1607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>58</v>
       </c>
@@ -1556,7 +1615,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
@@ -1564,7 +1623,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
@@ -1572,7 +1631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
@@ -1580,7 +1639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
@@ -1588,7 +1647,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -1596,7 +1655,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>58</v>
       </c>
@@ -1604,7 +1663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>58</v>
       </c>
@@ -1612,7 +1671,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
@@ -1620,7 +1679,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>58</v>
       </c>
@@ -1628,7 +1687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>58</v>
       </c>
@@ -1636,7 +1695,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>58</v>
       </c>
@@ -1644,7 +1703,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>58</v>
       </c>
@@ -1652,7 +1711,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>58</v>
       </c>
@@ -1660,7 +1719,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>58</v>
       </c>
@@ -1668,7 +1727,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>58</v>
       </c>
@@ -1676,7 +1735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>58</v>
       </c>
@@ -1684,7 +1743,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>58</v>
       </c>
@@ -1692,7 +1751,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>58</v>
       </c>
@@ -1700,7 +1759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>58</v>
       </c>
@@ -1708,7 +1767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
@@ -1716,7 +1775,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>58</v>
       </c>
@@ -1724,7 +1783,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>58</v>
       </c>
@@ -1732,7 +1791,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>58</v>
       </c>
@@ -1740,7 +1799,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>58</v>
       </c>
@@ -1748,7 +1807,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>58</v>
       </c>
@@ -1756,7 +1815,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>58</v>
       </c>
@@ -1764,7 +1823,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>58</v>
       </c>
@@ -1772,7 +1831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>58</v>
       </c>
@@ -1780,7 +1839,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>58</v>
       </c>
@@ -1788,7 +1847,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>58</v>
       </c>
@@ -1796,7 +1855,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>58</v>
       </c>
@@ -1804,7 +1863,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>58</v>
       </c>
@@ -1812,7 +1871,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>58</v>
       </c>
@@ -1820,7 +1879,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>58</v>
       </c>
@@ -1828,7 +1887,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>58</v>
       </c>
@@ -1836,7 +1895,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>58</v>
       </c>
@@ -1844,7 +1903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>58</v>
       </c>
@@ -1852,7 +1911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>58</v>
       </c>
@@ -1860,7 +1919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>58</v>
       </c>
@@ -1868,7 +1927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>58</v>
       </c>
@@ -1876,7 +1935,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>58</v>
       </c>
@@ -1884,7 +1943,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>58</v>
       </c>
@@ -1892,7 +1951,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>58</v>
       </c>
@@ -1900,7 +1959,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>58</v>
       </c>
@@ -1908,12 +1967,94 @@
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15300" windowHeight="6495" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15300" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="3" r:id="rId1"/>
     <sheet name="org" sheetId="1" r:id="rId2"/>
     <sheet name="product" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="Doctor_Module" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
   <si>
     <t>TC_ID</t>
   </si>
@@ -443,51 +443,6 @@
   </si>
   <si>
     <t>faceBook_kdd</t>
-  </si>
-  <si>
-    <t>AddPatient</t>
-  </si>
-  <si>
-    <t>Patient Name</t>
-  </si>
-  <si>
-    <t>Patient contactNo</t>
-  </si>
-  <si>
-    <t>Patient Email</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Medical History</t>
-  </si>
-  <si>
-    <t>Guru</t>
-  </si>
-  <si>
-    <t>@gmail.com</t>
-  </si>
-  <si>
-    <t>guru_</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>9789654321</t>
   </si>
 </sst>
 </file>
@@ -503,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,18 +468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,16 +510,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,7 +789,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1114,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1978,86 +1918,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15300" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15300" windowHeight="6495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="3" r:id="rId1"/>
     <sheet name="org" sheetId="1" r:id="rId2"/>
     <sheet name="product" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Doctor_Module" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="155">
   <si>
     <t>TC_ID</t>
   </si>
@@ -443,6 +443,51 @@
   </si>
   <si>
     <t>faceBook_kdd</t>
+  </si>
+  <si>
+    <t>AddPatient</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>Patient contactNo</t>
+  </si>
+  <si>
+    <t>Patient Email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Medical History</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>@gmail.com</t>
+  </si>
+  <si>
+    <t>guru_</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>9789654321</t>
   </si>
 </sst>
 </file>
@@ -458,7 +503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +513,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,13 +567,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,7 +849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1054,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1918,4 +1978,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B66EEE0E-7793-4D98-9BEE-A78371A6E345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15300" windowHeight="6495" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11620" windowHeight="6330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="3" r:id="rId1"/>
     <sheet name="org" sheetId="1" r:id="rId2"/>
     <sheet name="product" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="Doctor_Module" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:E15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
   <si>
     <t>TC_ID</t>
   </si>
@@ -443,57 +444,12 @@
   </si>
   <si>
     <t>faceBook_kdd</t>
-  </si>
-  <si>
-    <t>AddPatient</t>
-  </si>
-  <si>
-    <t>Patient Name</t>
-  </si>
-  <si>
-    <t>Patient contactNo</t>
-  </si>
-  <si>
-    <t>Patient Email</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Medical History</t>
-  </si>
-  <si>
-    <t>Guru</t>
-  </si>
-  <si>
-    <t>@gmail.com</t>
-  </si>
-  <si>
-    <t>guru_</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>9789654321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,18 +469,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,16 +511,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +578,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -672,7 +613,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -849,26 +790,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618505B5-BC18-40DF-B31F-D9D1863412AA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -979,18 +920,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1111,17 +1052,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6E95A9-5958-495C-AC30-1DA708189BFF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1162,17 +1103,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004AA42-F8FF-45C9-AB36-1F51EDB304F0}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1311,7 +1252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1327,7 +1268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1343,7 +1284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1351,7 +1292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1359,7 +1300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1367,7 +1308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1391,7 +1332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1399,7 +1340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1407,7 +1348,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1415,7 +1356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1431,7 +1372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1439,7 +1380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1447,7 +1388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1455,7 +1396,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1463,7 +1404,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1471,7 +1412,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -1479,7 +1420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
@@ -1487,7 +1428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -1495,7 +1436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -1503,7 +1444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -1511,7 +1452,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -1519,7 +1460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
@@ -1527,7 +1468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
@@ -1535,7 +1476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
@@ -1543,7 +1484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1559,7 +1500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
@@ -1567,7 +1508,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>14</v>
       </c>
@@ -1575,7 +1516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>58</v>
       </c>
@@ -1583,7 +1524,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -1591,7 +1532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>58</v>
       </c>
@@ -1599,7 +1540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
@@ -1607,7 +1548,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>58</v>
       </c>
@@ -1615,7 +1556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
@@ -1623,7 +1564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
@@ -1631,7 +1572,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
@@ -1639,7 +1580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
@@ -1647,7 +1588,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -1655,7 +1596,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>58</v>
       </c>
@@ -1663,7 +1604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>58</v>
       </c>
@@ -1671,7 +1612,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
@@ -1679,7 +1620,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>58</v>
       </c>
@@ -1687,7 +1628,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>58</v>
       </c>
@@ -1695,7 +1636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>58</v>
       </c>
@@ -1703,7 +1644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>58</v>
       </c>
@@ -1711,7 +1652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>58</v>
       </c>
@@ -1719,7 +1660,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>58</v>
       </c>
@@ -1727,7 +1668,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>58</v>
       </c>
@@ -1735,7 +1676,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>58</v>
       </c>
@@ -1743,7 +1684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>58</v>
       </c>
@@ -1751,7 +1692,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>58</v>
       </c>
@@ -1759,7 +1700,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>58</v>
       </c>
@@ -1767,7 +1708,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
@@ -1775,7 +1716,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>58</v>
       </c>
@@ -1783,7 +1724,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>58</v>
       </c>
@@ -1791,7 +1732,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>58</v>
       </c>
@@ -1799,7 +1740,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>58</v>
       </c>
@@ -1807,7 +1748,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>58</v>
       </c>
@@ -1815,7 +1756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>58</v>
       </c>
@@ -1823,7 +1764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>58</v>
       </c>
@@ -1831,7 +1772,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>58</v>
       </c>
@@ -1839,7 +1780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>58</v>
       </c>
@@ -1847,7 +1788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>58</v>
       </c>
@@ -1855,7 +1796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>58</v>
       </c>
@@ -1863,7 +1804,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>58</v>
       </c>
@@ -1871,7 +1812,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>58</v>
       </c>
@@ -1879,7 +1820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>58</v>
       </c>
@@ -1887,7 +1828,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>58</v>
       </c>
@@ -1895,7 +1836,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>58</v>
       </c>
@@ -1903,7 +1844,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>58</v>
       </c>
@@ -1911,7 +1852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>58</v>
       </c>
@@ -1919,7 +1860,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>58</v>
       </c>
@@ -1927,7 +1868,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>58</v>
       </c>
@@ -1935,7 +1876,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>58</v>
       </c>
@@ -1943,7 +1884,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>58</v>
       </c>
@@ -1951,7 +1892,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>58</v>
       </c>
@@ -1959,7 +1900,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>58</v>
       </c>
@@ -1967,94 +1908,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\GUIFramework\GUISeleniumFramework\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2382BB9D-2194-4B3B-8A5D-244890708F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15240" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="3" r:id="rId1"/>
@@ -20,6 +14,7 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -490,7 +485,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,7 +633,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -673,7 +668,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -850,26 +845,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618505B5-BC18-40DF-B31F-D9D1863412AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -980,18 +975,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1112,21 +1107,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D4DBFF-79C5-4313-A7CE-A0F24C5383DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1198,24 +1193,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{E1E5C2DE-B298-49A3-BF5C-4A718F3E8097}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6E95A9-5958-495C-AC30-1DA708189BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1256,17 +1251,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004AA42-F8FF-45C9-AB36-1F51EDB304F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\GUIFramework\GUISeleniumFramework\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2382BB9D-2194-4B3B-8A5D-244890708F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15240" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="3" r:id="rId1"/>
@@ -14,7 +20,6 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -485,7 +490,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,7 +638,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -668,7 +673,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -845,26 +850,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618505B5-BC18-40DF-B31F-D9D1863412AA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -975,18 +980,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1107,21 +1112,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D4DBFF-79C5-4313-A7CE-A0F24C5383DC}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1193,24 +1198,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E1E5C2DE-B298-49A3-BF5C-4A718F3E8097}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6E95A9-5958-495C-AC30-1DA708189BFF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1251,17 +1256,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004AA42-F8FF-45C9-AB36-1F51EDB304F0}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B66EEE0E-7793-4D98-9BEE-A78371A6E345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11620" windowHeight="6330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="3" r:id="rId1"/>
     <sheet name="org" sheetId="1" r:id="rId2"/>
     <sheet name="product" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="patient" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="161">
   <si>
     <t>TC_ID</t>
   </si>
@@ -32,6 +40,42 @@
     <t>TestcaseName</t>
   </si>
   <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>tc_04</t>
+  </si>
+  <si>
+    <t>createcontactTest</t>
+  </si>
+  <si>
+    <t>Deepak_</t>
+  </si>
+  <si>
+    <t>tc_05</t>
+  </si>
+  <si>
+    <t>createContactWithSupportDateTest</t>
+  </si>
+  <si>
+    <t>OrgName</t>
+  </si>
+  <si>
+    <t>ContactLastName</t>
+  </si>
+  <si>
+    <t>tc_06</t>
+  </si>
+  <si>
+    <t>createContactWithOrgTest</t>
+  </si>
+  <si>
+    <t>FaceBook_</t>
+  </si>
+  <si>
     <t>organizationName</t>
   </si>
   <si>
@@ -41,18 +85,138 @@
     <t>createorgtest</t>
   </si>
   <si>
+    <t>faceBook_kdd</t>
+  </si>
+  <si>
+    <t>Industries</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>tc_02</t>
+  </si>
+  <si>
+    <t>createOrgWithType</t>
+  </si>
+  <si>
+    <t>instagram_</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>tc_03</t>
+  </si>
+  <si>
+    <t>createOrgWithPhoneNumber</t>
+  </si>
+  <si>
+    <t>9880008898</t>
+  </si>
+  <si>
+    <t>DeleteOrgTest</t>
+  </si>
+  <si>
+    <t>BrandName</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>Apple iPhone 12 (128GB) - Black</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro (1 TB) - Space Black</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 Pro Max (128 GB) - Space Black</t>
+  </si>
+  <si>
+    <t>TC-id</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>sEmail</t>
+  </si>
+  <si>
+    <t>lEmail</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>samePassword</t>
+  </si>
+  <si>
+    <t>TC-01</t>
+  </si>
+  <si>
+    <t>sruthi-</t>
+  </si>
+  <si>
+    <t>panthur</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>sru</t>
+  </si>
+  <si>
+    <t>@gmail.com</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>TC-02</t>
+  </si>
+  <si>
+    <t>mani-289046844795</t>
+  </si>
+  <si>
+    <t>TC-03</t>
+  </si>
+  <si>
+    <t>Cardiology12</t>
+  </si>
+  <si>
+    <t>Kani</t>
+  </si>
+  <si>
+    <t>TC-04</t>
+  </si>
+  <si>
     <t>ProductCat</t>
   </si>
   <si>
     <t>productName</t>
   </si>
   <si>
+    <t>Samsung</t>
+  </si>
+  <si>
     <t>samsung-a50</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
     <t>samsung-a51</t>
   </si>
   <si>
@@ -351,111 +515,18 @@
   </si>
   <si>
     <t>v-50</t>
-  </si>
-  <si>
-    <t>createOrgWithType</t>
-  </si>
-  <si>
-    <t>tc_02</t>
-  </si>
-  <si>
-    <t>tc_03</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>createOrgWithPhoneNumber</t>
-  </si>
-  <si>
-    <t>Industries</t>
-  </si>
-  <si>
-    <t>tc_04</t>
-  </si>
-  <si>
-    <t>tc_05</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>createContactWithSupportDateTest</t>
-  </si>
-  <si>
-    <t>createContactWithOrgTest</t>
-  </si>
-  <si>
-    <t>OrgName</t>
-  </si>
-  <si>
-    <t>ContactLastName</t>
-  </si>
-  <si>
-    <t>instagram_</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>Deepak_</t>
-  </si>
-  <si>
-    <t>tc_06</t>
-  </si>
-  <si>
-    <t>FaceBook_</t>
-  </si>
-  <si>
-    <t>createcontactTest</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>9880008898</t>
-  </si>
-  <si>
-    <t>DeleteOrgTest</t>
-  </si>
-  <si>
-    <t>BrandName</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 (128GB) - Black</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro (1 TB) - Space Black</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max (128 GB) - Space Black</t>
-  </si>
-  <si>
-    <t>faceBook_kdd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -483,25 +554,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -511,13 +582,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -613,7 +685,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -788,31 +860,26 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618505B5-BC18-40DF-B31F-D9D1863412AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,34 +887,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,34 +922,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,27 +957,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>126</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -920,21 +987,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,25 +1009,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,33 +1035,33 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,27 +1069,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,21 +1097,21 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1052,49 +1119,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6E95A9-5958-495C-AC30-1DA708189BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1103,817 +1170,920 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004AA42-F8FF-45C9-AB36-1F51EDB304F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
